--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,279 +595,279 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 03</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e25/296_296_2/vaqi972fzil8cmqj6bso3rj0g6samgsz.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c05/296_296_2/vu9m6mnwmeqa58ky1nmd4cgp1sjl92ld.JPG </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Low SE (GS)</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fe4/296_296_2/4yptl7en03ww5ag7qtnn89v093o31clo.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Jordan 3 Retro</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c05/296_296_2/vu9m6mnwmeqa58ky1nmd4cgp1sjl92ld.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 3 Retro</t>
+          <t>Кроссовки PUMA Teveris Nitro</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>9.490.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Teveris Nitro</t>
+          <t>Кроссовки Jordan 13 Retro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9.490.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>19.900.₽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3ff/296_296_2/3ff05c0b0ca00e50a11d9043f0233cf4.jpg </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Jordan 1 Mid (GS)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>16.490.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/409/296_296_2/8wkzdb6sy4028t0y7orl9aykdbyj9jt0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/098/296_296_2/es3ww7bfe6eyxjbjx7nk1wdbh19ew4ug.jpg </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 13 Retro</t>
+          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Jordan WMNS 1 Mid</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>19.900.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3ff/296_296_2/3ff05c0b0ca00e50a11d9043f0233cf4.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid (GS)</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16.490.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/098/296_296_2/es3ww7bfe6eyxjbjx7nk1wdbh19ew4ug.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fe1/296_296_2/hxbjvb19wez1ka68d1l20c6iu3rv4esj.JPG </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Mid</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Mizuno Wave Rider 1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>18.490.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fe1/296_296_2/hxbjvb19wez1ka68d1l20c6iu3rv4esj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -877,116 +877,116 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки PUMA RS-X Hi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 1</t>
+          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18.490.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/84f/296_296_2/9drxj66ie39iw0mssxn485fxkjn2h3ia.JPG </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA RS-X Hi</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки Nike x Travis Scott Air Max 270 Cactus Trails (PS)</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ac1/296_296_2/tififyk3fd1e1wunkxheqtsplh8dom83.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки ASICS Gel-1130</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -996,262 +996,1078 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/84f/296_296_2/9drxj66ie39iw0mssxn485fxkjn2h3ia.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки ASICS Gel-Lyte III OG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-1130</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>12.690.₽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Lyte III OG</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки Nike Air Max 97</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12.690.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/23d/296_296_2/9r8xi8fe61imxhxzlgkhfkzfn6i4etkd.JPG </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
+          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
+          <t>Кроссовки Nike Air Force 1 Crater Flyknit NN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0c5/296_296_2/2d8fok2200a1b6zimxx29ttp6p1n22zs.JPG </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 97</t>
+          <t xml:space="preserve">Кроссовки Jordan 1 Retro High Utility SP </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/23d/296_296_2/9r8xi8fe61imxhxzlgkhfkzfn6i4etkd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9c2/296_296_2/sko9wgbqdrwub5gikyu2to2dg6dn4ihl.JPG </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
+          <t>Кроссовки Nike ZoomX Vaporfly</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 Crater Flyknit NN</t>
+          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0c5/296_296_2/2d8fok2200a1b6zimxx29ttp6p1n22zs.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Jordan 1 Retro High Utility SP </t>
+          <t>Кроссовки Nike Air Max SC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9c2/296_296_2/sko9wgbqdrwub5gikyu2to2dg6dn4ihl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/045/296_296_2/hda9q0wyrbhni95yqjerddwjzkvcsyi9.JPG </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ZoomX Vaporfly</t>
+          <t>Кроссовки Li-Ning Wave Pro</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
+          <t>Кроссовки Li-Ning Wave Pro SE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike ACG Moc 3.5</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11.990.₽</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>21.000.₽</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>21.000.₽</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>21.000.₽</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike Air Force 1 '07</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16.990.₽</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike Air Force 1 '07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b2/296_296_2/fpbnqjfiyl6u8yvf42agnoknzgk1yg0m.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike Dunk Low Retro PRM</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20.990.₽</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/483/296_296_2/5ckjgio7rfyerf2s9ek5y6wuba9a0h01.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike WMNS Dunk Low LX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Кроссовки PUMA Slipstream Suede</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10.190.₽</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>26.790.₽</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora B.560 Used</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>24.490.₽</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora B.56 Icona</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>12.190.₽</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>12.590.₽</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N.92 Advance</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10.490.₽</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N902 Hairy Suede</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>11.190.₽</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N902</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>14.890.₽</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora V7000 Winter</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>14.190.₽</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>14.190.₽</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N9002 Winter</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16.390.₽</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N9002 Winter</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16.390.₽</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Contender</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16.990.₽</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20.990.₽</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2a8/296_296_2/2f7yvxz0a9pvzapkmhkca97lgawh4amx.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno City Wind</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>14.990.₽</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>21.000.₽</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8b3/296_296_2/6b7w8lgab9521w5w9e9yh4xq8ehrf55o.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>24.000.₽</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>11.590.₽</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>22.990.₽</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>23.990.₽</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22.990.₽</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/897/296_296_2/z8a3jf41ogax8fy1cxk0n4qz61c1g2ks.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906D</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>29.990.₽</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 2002R</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>26.990.₽</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 2002R</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>27.990.₽</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 2002R</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>27.990.₽</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 650</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 574</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N902</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>11.190.₽</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -442,41 +442,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 5000</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/046/296_296_2/nfeq0doxq94c7x5jnrrzyrrnckknwqqq.JPG </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Saucony Shadow 5000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
         </is>
       </c>
     </row>
@@ -515,131 +515,131 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18.900.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Jazz 81</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13.900.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow Original</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14.400.₽</t>
+          <t>18.900.₽</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony 3D Grid Hurricane</t>
+          <t>Кроссовки Saucony Jazz 81</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>13.900.₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Zoom Spiridon Cage 2</t>
+          <t>Кроссовки Saucony Shadow Original</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>14.400.₽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5e7/296_296_2/t10f9zno250mzry3e6tzpporrk19pxer.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки Saucony 3D Grid Hurricane</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Nike Air Zoom Spiridon Cage 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c05/296_296_2/vu9m6mnwmeqa58ky1nmd4cgp1sjl92ld.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5e7/296_296_2/t10f9zno250mzry3e6tzpporrk19pxer.JPG </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
         </is>
       </c>
     </row>
@@ -748,51 +748,51 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid (GS)</t>
+          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16.490.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/098/296_296_2/es3ww7bfe6eyxjbjx7nk1wdbh19ew4ug.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
+          <t>Кроссовки Jordan WMNS 1 Mid</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Mid</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fe1/296_296_2/hxbjvb19wez1ka68d1l20c6iu3rv4esj.JPG </t>
         </is>
       </c>
     </row>
@@ -809,126 +809,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fe1/296_296_2/hxbjvb19wez1ka68d1l20c6iu3rv4esj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Mizuno Wave Rider 1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>18.490.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 1</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18.490.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки PUMA RS-X Hi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA RS-X Hi</t>
+          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/84f/296_296_2/9drxj66ie39iw0mssxn485fxkjn2h3ia.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
         </is>
       </c>
     </row>
@@ -945,14 +945,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -962,41 +962,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
+          <t>Кроссовки ASICS Gel-1130</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-1130</t>
+          <t>Кроссовки ASICS Gel-Kayano 14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
         </is>
       </c>
     </row>
@@ -1105,187 +1105,187 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 97</t>
+          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/23d/296_296_2/9r8xi8fe61imxhxzlgkhfkzfn6i4etkd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
+          <t>Кроссовки Nike Air Force 1 Crater Flyknit NN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0c5/296_296_2/2d8fok2200a1b6zimxx29ttp6p1n22zs.JPG </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 Crater Flyknit NN</t>
+          <t xml:space="preserve">Кроссовки Jordan 1 Retro High Utility SP </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0c5/296_296_2/2d8fok2200a1b6zimxx29ttp6p1n22zs.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9c2/296_296_2/sko9wgbqdrwub5gikyu2to2dg6dn4ihl.JPG </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Jordan 1 Retro High Utility SP </t>
+          <t>Кроссовки Nike ZoomX Vaporfly</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9c2/296_296_2/sko9wgbqdrwub5gikyu2to2dg6dn4ihl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ZoomX Vaporfly</t>
+          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
+          <t>Кроссовки Nike Air Max SC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/045/296_296_2/hda9q0wyrbhni95yqjerddwjzkvcsyi9.JPG </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max SC</t>
+          <t>Кроссовки Li-Ning Wave Pro</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/045/296_296_2/hda9q0wyrbhni95yqjerddwjzkvcsyi9.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro</t>
+          <t>Кроссовки Li-Ning Wave Pro SE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro SE</t>
+          <t>Кроссовки Nike ACG Moc 3.5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Moc 3.5</t>
+          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
         </is>
       </c>
     </row>
@@ -1319,286 +1319,286 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b2/296_296_2/fpbnqjfiyl6u8yvf42agnoknzgk1yg0m.JPG </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Nike Dunk Low Retro PRM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b2/296_296_2/fpbnqjfiyl6u8yvf42agnoknzgk1yg0m.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/483/296_296_2/5ckjgio7rfyerf2s9ek5y6wuba9a0h01.JPG </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro PRM</t>
+          <t>Кроссовки Nike WMNS Dunk Low LX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/483/296_296_2/5ckjgio7rfyerf2s9ek5y6wuba9a0h01.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low LX</t>
+          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>26.790.₽</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
+          <t>Кроссовки Diadora B.560 Used</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>26.790.₽</t>
+          <t>24.490.₽</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.560 Used</t>
+          <t>Кроссовки Diadora B.56 Icona</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24.490.₽</t>
+          <t>12.190.₽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.56 Icona</t>
+          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>12.190.₽</t>
+          <t>12.590.₽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
+          <t>Кроссовки Diadora N.92 Advance</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>12.590.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N.92 Advance</t>
+          <t>Кроссовки Diadora N902 Hairy Suede</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>11.190.₽</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902 Hairy Suede</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>14.890.₽</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки Diadora V7000 Winter</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14.890.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora V7000 Winter</t>
+          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1608,24 +1608,24 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
         </is>
       </c>
     </row>
@@ -1642,75 +1642,75 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2a8/296_296_2/2f7yvxz0a9pvzapkmhkca97lgawh4amx.JPG </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки Mizuno City Wind</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2a8/296_296_2/2f7yvxz0a9pvzapkmhkca97lgawh4amx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno City Wind</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
         </is>
       </c>
     </row>
@@ -1727,143 +1727,143 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8b3/296_296_2/6b7w8lgab9521w5w9e9yh4xq8ehrf55o.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
         </is>
       </c>
     </row>
@@ -1875,12 +1875,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>23.990.₽</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
         </is>
       </c>
     </row>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/897/296_296_2/z8a3jf41ogax8fy1cxk0n4qz61c1g2ks.JPG </t>
         </is>
       </c>
     </row>
@@ -1909,63 +1909,63 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>23.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки New Balance 1906D</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>29.990.₽</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/897/296_296_2/z8a3jf41ogax8fy1cxk0n4qz61c1g2ks.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906D</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>29.990.₽</t>
+          <t>27.990.₽</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
         </is>
       </c>
     </row>
@@ -1977,97 +1977,97 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>27.990.₽</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки New Balance 650</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>27.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>27.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 650</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>11.190.₽</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Diadora Camaro</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>8.190.₽</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4fc/296_296_2/srjdigdfxudh215w70x0o8fc8l116xtv.JPG </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки PUMA Slipstream Ith</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/24e/296_296_2/0mc2kmrb9e1lnb1pd33208a0txdd065m.jpg </t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -442,993 +442,993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Nike Dunk Low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/046/296_296_2/nfeq0doxq94c7x5jnrrzyrrnckknwqqq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/569/296_296_2/kiaykp1bzsyl6qpj35wzct7yp9zmmk33.JPG </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 5000</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8 EMB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/f8f/296_296_2/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike Air Max 1 PRM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike Dunk Low Retro PRM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18.900.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4b0/296_296_2/zbh1ls7bydwt3hjy9ct4o1tyrhh7268f.JPG </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Jazz 81</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13.900.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow Original</t>
+          <t>Кроссовки Jordan 1 High Element Gore-Tex</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14.400.₽</t>
+          <t>32.000.₽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/627/296_296_2/gh7zsvf207s6odnv9wfpft5q36fxm9c4.jpg </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony 3D Grid Hurricane</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b70/296_296_2/qld154oi5icive9kkdj9xm7m3qkffod0.jpg </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Zoom Spiridon Cage 2</t>
+          <t>Кроссовки Nike WMNS Dunk Low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5e7/296_296_2/t10f9zno250mzry3e6tzpporrk19pxer.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50f/296_296_2/gjjeedmwrk5o1yprrzl7ilr9p23lhbwg.jpg </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки New Balance 550</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>19.000.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fee/296_296_2/am6089d2oguxveg0welsjhyz306ie7dp.jpg </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 3 Retro</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3dd/296_296_2/3ao3bblwhi8ewzbq7soeh83q3srdhhaz.JPG </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t xml:space="preserve">Кроссовки Jordan 1 Retro High OG </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>32.000.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/291/296_296_2/6z9elt6nt620izhswytnkd17huwm9fyk.jpg </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Teveris Nitro</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9.490.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/046/296_296_2/nfeq0doxq94c7x5jnrrzyrrnckknwqqq.JPG </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 13 Retro</t>
+          <t>Кроссовки Saucony Shadow 5000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19.900.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3ff/296_296_2/3ff05c0b0ca00e50a11d9043f0233cf4.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Mid</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>18.900.₽</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fe1/296_296_2/hxbjvb19wez1ka68d1l20c6iu3rv4esj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Saucony Jazz 81</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>13.900.₽</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Saucony Shadow Original</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>14.400.₽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 1</t>
+          <t>Кроссовки Saucony 3D Grid Hurricane</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18.490.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Nike Air Zoom Spiridon Cage 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5e7/296_296_2/t10f9zno250mzry3e6tzpporrk19pxer.JPG </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA RS-X Hi</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки Jordan 3 Retro</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки PUMA Teveris Nitro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>9.490.₽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-1130</t>
+          <t>Кроссовки Jordan 13 Retro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Kayano 14</t>
+          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
+          <t>Кроссовки Jordan WMNS 1 Mid</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Lyte III OG</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки Mizuno Wave Rider 1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12.690.₽</t>
+          <t>18.490.₽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
+          <t>Кроссовки PUMA RS-X Hi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
+          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 Crater Flyknit NN</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0c5/296_296_2/2d8fok2200a1b6zimxx29ttp6p1n22zs.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Jordan 1 Retro High Utility SP </t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9c2/296_296_2/sko9wgbqdrwub5gikyu2to2dg6dn4ihl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ZoomX Vaporfly</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max SC</t>
+          <t>Кроссовки ASICS Gel-1130</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/045/296_296_2/hda9q0wyrbhni95yqjerddwjzkvcsyi9.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro</t>
+          <t>Кроссовки ASICS Gel-Kayano 14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro SE</t>
+          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Moc 3.5</t>
+          <t>Кроссовки ASICS Gel-Lyte III OG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>12.690.₽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Nike ZoomX Vaporfly</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Li-Ning Wave Pro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b2/296_296_2/fpbnqjfiyl6u8yvf42agnoknzgk1yg0m.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro PRM</t>
+          <t>Кроссовки Li-Ning Wave Pro SE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/483/296_296_2/5ckjgio7rfyerf2s9ek5y6wuba9a0h01.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low LX</t>
+          <t>Кроссовки Nike ACG Moc 3.5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
+          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1438,422 +1438,422 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>26.790.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.560 Used</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24.490.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.56 Icona</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>12.190.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>12.590.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N.92 Advance</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902 Hairy Suede</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d6/296_296_2/1s2e120rrbes2jetcimmpvd82pmkvn93.JPG </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки Nike WMNS Dunk Low LX</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14.890.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora V7000 Winter</t>
+          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>26.790.₽</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Diadora B.560 Used</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>24.490.₽</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Diadora B.56 Icona</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>12.190.₽</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>12.590.₽</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2a8/296_296_2/2f7yvxz0a9pvzapkmhkca97lgawh4amx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno City Wind</t>
+          <t>Кроссовки Diadora N.92 Advance</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Diadora N902 Hairy Suede</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>11.190.₽</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>14.890.₽</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Diadora V7000 Winter</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2a8/296_296_2/2f7yvxz0a9pvzapkmhkca97lgawh4amx.JPG </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Mizuno City Wind</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1863,211 +1863,211 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>23.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/897/296_296_2/z8a3jf41ogax8fy1cxk0n4qz61c1g2ks.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906D</t>
+          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>29.990.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>27.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>27.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 650</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>23.990.₽</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Camaro</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>8.190.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4fc/296_296_2/srjdigdfxudh215w70x0o8fc8l116xtv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Ith</t>
+          <t>Кроссовки New Balance 1906D</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>29.990.₽</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/24e/296_296_2/0mc2kmrb9e1lnb1pd33208a0txdd065m.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,80 +437,105 @@
           <t>Image</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low</t>
+          <t>Кроссовки PUMA Palermo Special</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/569/296_296_2/kiaykp1bzsyl6qpj35wzct7yp9zmmk33.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8 EMB</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/f8f/296_296_2/</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки PUMA Palermo Lth</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки PUMA Velophasis Technisch</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -520,1289 +545,1669 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 1 PRM</t>
+          <t>Кроссовки Reebok Classic Leather</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro PRM</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4b0/296_296_2/zbh1ls7bydwt3hjy9ct4o1tyrhh7268f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 High Element Gore-Tex</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>32.000.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/627/296_296_2/gh7zsvf207s6odnv9wfpft5q36fxm9c4.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b70/296_296_2/qld154oi5icive9kkdj9xm7m3qkffod0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50f/296_296_2/gjjeedmwrk5o1yprrzl7ilr9p23lhbwg.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 550</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19.000.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fee/296_296_2/am6089d2oguxveg0welsjhyz306ie7dp.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3dd/296_296_2/3ao3bblwhi8ewzbq7soeh83q3srdhhaz.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Jordan 1 Retro High OG </t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>32.000.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/291/296_296_2/6z9elt6nt620izhswytnkd17huwm9fyk.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Reebok Club C Grounds UK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/046/296_296_2/nfeq0doxq94c7x5jnrrzyrrnckknwqqq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Nike Dunk Low</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/569/296_296_2/kiaykp1bzsyl6qpj35wzct7yp9zmmk33.JPG </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-FJ5429-133/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 5000</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8 EMB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/f8f/296_296_2/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-emb-FB8878-200/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-400/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike Air Max 1 PRM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18.900.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Jazz 81</t>
+          <t>Кроссовки Nike Dunk Low Retro PRM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>13.900.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4b0/296_296_2/zbh1ls7bydwt3hjy9ct4o1tyrhh7268f.JPG </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-retro-prm-DV7212-300/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow Original</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>14.400.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony 3D Grid Hurricane</t>
+          <t>Кроссовки Jordan 6 Retro Low</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>22.500.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e6b/296_296_2/l6o3qvdfci8s6po2pnh2sqxuqgk7bd9d.jpg </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/6-retro-low-DC1048-110/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Zoom Spiridon Cage 2</t>
+          <t>Кроссовки New Balance 550</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>19.000.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5e7/296_296_2/t10f9zno250mzry3e6tzpporrk19pxer.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/31c/296_296_2/lzad5jkx2a4jeszxp7tykaq58xa7s4a9.jpg </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/550-BB550-HR1-1/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки Jordan 1 High Element Gore-Tex</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>32.000.₽</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/627/296_296_2/gh7zsvf207s6odnv9wfpft5q36fxm9c4.jpg </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-high-element-gore-tex-DB2889001/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b70/296_296_2/qld154oi5icive9kkdj9xm7m3qkffod0.jpg </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/isnew/dunk-low-retro-DD1391100/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 3 Retro</t>
+          <t>Кроссовки Nike WMNS Dunk Low</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50f/296_296_2/gjjeedmwrk5o1yprrzl7ilr9p23lhbwg.jpg </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-1/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки New Balance 550</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>19.000.₽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fee/296_296_2/am6089d2oguxveg0welsjhyz306ie7dp.jpg </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/new-balance-550-BB550WTG/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Teveris Nitro</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9.490.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3dd/296_296_2/3ao3bblwhi8ewzbq7soeh83q3srdhhaz.JPG </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-retro-DD1391104/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t xml:space="preserve">Кроссовки Jordan 1 Retro High OG </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>32.000.₽</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/291/296_296_2/6z9elt6nt620izhswytnkd17huwm9fyk.jpg </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-retro-high-og-555088037/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 13 Retro</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/046/296_296_2/nfeq0doxq94c7x5jnrrzyrrnckknwqqq.JPG </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1872-030/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1873-006/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Mid</t>
+          <t>Кроссовки Saucony Shadow 5000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 1</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18.490.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>18.900.₽</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA RS-X Hi</t>
+          <t>Кроссовки Saucony Jazz 81</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>13.900.₽</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
+          <t>Кроссовки Saucony Shadow Original</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>14.400.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки Saucony 3D Grid Hurricane</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-DH7440-100/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
+          <t>Кроссовки Jordan 3 Retro</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/3-retro-CT8532-102/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-1130</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Kayano 14</t>
+          <t>Кроссовки PUMA Teveris Nitro</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>9.490.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754703/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Lyte III OG</t>
+          <t>Кроссовки Jordan 13 Retro</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/13-retro-DJ5982-041/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-high-og-qs-DX3805-100/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки Jordan WMNS 1 Mid</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12.690.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-mid-BQ6472-079/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-U574UL2/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
+          <t>Кроссовки Nike Dunk Low Retro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-retro-DD1391-401/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
+          <t>Кроссовки Mizuno Wave Rider 1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>18.490.₽</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-1-D1GA238001/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ZoomX Vaporfly</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/contender-D1GA236701/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
+          <t>Кроссовки PUMA RS-X Hi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/rs-x-hi-39271801/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro</t>
+          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-shadow-CI0919-600/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro SE</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-MR2002RHR/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Moc 3.5</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327202/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327201/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-39327102/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки ASICS Gel-1130</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-1130-1201A255-200/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки ASICS Gel-Kayano 14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kayano-14-1202A105-020/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-sonoma-15-50-1201A785-020/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки ASICS Gel-Lyte III OG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-lyte-iii-og-1201A482-020/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073985/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.690.₽</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d6/296_296_2/1s2e120rrbes2jetcimmpvd82pmkvn93.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033732/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low LX</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-2-DJ5457-100/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-hkne-CD4553-300/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-vapormax-2021-fk-DC4112-100/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
+          <t>Кроссовки Nike ZoomX Vaporfly</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26.790.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.560 Used</t>
+          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>24.490.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-zoom-air-cmft-CT0978-201/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.56 Icona</t>
+          <t>Кроссовки Li-Ning Wave Pro</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>12.190.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-AECT035-2F/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
+          <t>Кроссовки Li-Ning Wave Pro SE</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>12.590.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-se-AECT033-3F/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N.92 Advance</t>
+          <t>Кроссовки Nike ACG Moc 3.5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-moc-3-5-DJ6080-800/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902 Hairy Suede</t>
+          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-le-gs-DH2920-111/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>14.890.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-401/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora V7000 Winter</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-001/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-701/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DM1208-150/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-FJ4228-100/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1812,262 +2217,342 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-DD8959-110/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2a8/296_296_2/2f7yvxz0a9pvzapkmhkca97lgawh4amx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d6/296_296_2/1s2e120rrbes2jetcimmpvd82pmkvn93.JPG </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-DV0788-001/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno City Wind</t>
+          <t>Кроссовки Nike WMNS Dunk Low LX</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-lx-DV7411-400/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-mountain-fly-2-low-DV7903-800/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754701/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>26.790.₽</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9000-rally-giulietta-itali-DR201180176/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Diadora B.560 Used</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>24.490.₽</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/b-560-used-DR201180117/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
+          <t>Кроссовки Diadora B.56 Icona</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>12.190.₽</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/b-56-icona-DR501180124/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>12.590.₽</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/magic-basket-low-suede-leather-DR501178565/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки Diadora N.92 Advance</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n-92-advance-DR101178042/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки Diadora N902 Hairy Suede</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>11.190.₽</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n902-hairy-suede-DR501179800/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>14.890.₽</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Diadora V7000 Winter</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C9/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>23.990.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C4/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C3/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906D</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>29.990.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C1/</t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -447,1283 +447,1283 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo Special</t>
+          <t>Кроссовки PUMA Slipstream Xtreme Earth</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>13.490.₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/886/296_296_2/cx822a9cpum8yr0wbq4z3b2sg03qrw2r.JPG </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-xtreme-earth-39469602/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo</t>
+          <t>Кроссовки PUMA Suede XL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c25/296_296_2/fggdi89vqhp9klsn5g0pj2uzd6z2o269.JPG </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-39520507/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo</t>
+          <t>Кроссовки PUMA Suede XL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/dbe/296_296_2/89xnx3cbxuhcdfwn1s93sexhv5xy7ywn.JPG </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-39520508/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo Lth</t>
+          <t>Кроссовки PUMA Suede XL Skate</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1a1/296_296_2/okixnq1msr719ui0ffmna2sesdlh9lsb.JPG </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-skate-39577701/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Velophasis Technisch</t>
+          <t>Кроссовки PUMA Morphic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/419/296_296_2/7ohgh2dmkttjinlcs2wku6ufhpoqacq0.JPG </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/morphic-39272401/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>23.490.₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/56b/296_296_2/c36zv8alostdxiei86arxk35ryghst8j.JPG </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-FD0793-100/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/03d/296_296_2/bfcvnkoj8jka2v8no3vrqnx9bu5jwt7g.JPG </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-DZ4764-133/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7d9/296_296_2/ualpy0b013pgqtaaj5n8x3umq157ry3t.JPG </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-DD8959-112/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d2/296_296_2/186kxtoybsttjke5bhnl8v2muqgbfrxp.JPG </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-CZ0326-100/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
+          <t>Кроссовки Jordan 1 Low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>22.490.₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c4a/296_296_2/t6et7ncztmemah20ta98bmfzbv4xipgg.JPG </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-low-553558-130/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки adidas Originals Gazelle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/461/296_296_2/k9dgumnj9laxldfyq8plxghpaggmoxqo.JPG </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gazelle-IG4988/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки PUMA Disc Blaze The NeverWorn II</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c7/296_296_2/b73zpub7z75f3pa5z6q1rld4krtwedcl.JPG </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/disc-blaze-the-neverworn-ii-39318201/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
+          <t>Кроссовки Nike Air Max 90 NRG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>17.490.₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/333/296_296_2/ub7w8db8yc4rww67chnkcpfpzmh5nx9z.JPG </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-nrg-CZ1929-200/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f1/296_296_2/ppedfbkw8kw08vdfvp6jz1wjl4udtyoi.JPG </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA242601/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Grounds UK</t>
+          <t>Кроссовки Mizuno Sky Medal B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a66/296_296_2/ady3g8oxqcue14zz1u0fy3cw21o9lt9b.JPG </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/sky-medal-b-D1GA243002/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low</t>
+          <t>Кроссовки Mizuno Wave Rider B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/569/296_296_2/kiaykp1bzsyl6qpj35wzct7yp9zmmk33.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/534/296_296_2/vtlxzn6kgbxd75txbf3wjzevemdqa7ya.JPG </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-FJ5429-133/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-b-D1GA330911/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/b00/296_296_2/jkdkeom4ii61t3ep9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237305/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8 EMB</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/f8f/296_296_2/</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1b/296_296_2/5wl372wlgcdiupc2330wu47dztxa66jj.JPG </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-emb-FB8878-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237304/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7b/296_296_2/xcb1dadzw6w1vw66jl4nnob36t17s7bp.JPG </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237303/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки Nike Air Max SC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/8bb/296_296_2/16hm7mio</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-sc-CW4555-107/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 1 PRM</t>
+          <t>Кроссовки PUMA Palermo Special</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro PRM</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4b0/296_296_2/zbh1ls7bydwt3hjy9ct4o1tyrhh7268f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-retro-prm-DV7212-300/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 6 Retro Low</t>
+          <t>Кроссовки PUMA Palermo Lth</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22.500.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e6b/296_296_2/l6o3qvdfci8s6po2pnh2sqxuqgk7bd9d.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/6-retro-low-DC1048-110/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 550</t>
+          <t>Кроссовки PUMA Velophasis Technisch</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19.000.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/31c/296_296_2/lzad5jkx2a4jeszxp7tykaq58xa7s4a9.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/550-BB550-HR1-1/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 High Element Gore-Tex</t>
+          <t>Кроссовки Reebok Classic Leather</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>32.000.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/627/296_296_2/gh7zsvf207s6odnv9wfpft5q36fxm9c4.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-high-element-gore-tex-DB2889001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b70/296_296_2/qld154oi5icive9kkdj9xm7m3qkffod0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/isnew/dunk-low-retro-DD1391100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low</t>
+          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50f/296_296_2/gjjeedmwrk5o1yprrzl7ilr9p23lhbwg.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-1/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 550</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19.000.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fee/296_296_2/am6089d2oguxveg0welsjhyz306ie7dp.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/new-balance-550-BB550WTG/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3dd/296_296_2/3ao3bblwhi8ewzbq7soeh83q3srdhhaz.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-retro-DD1391104/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Jordan 1 Retro High OG </t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32.000.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/291/296_296_2/6z9elt6nt620izhswytnkd17huwm9fyk.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-retro-high-og-555088037/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/046/296_296_2/nfeq0doxq94c7x5jnrrzyrrnckknwqqq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1872-030/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1873-006/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 5000</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Reebok Club C Grounds UK</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-400/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>18.900.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Jazz 81</t>
+          <t>Кроссовки Nike Air Max 1 PRM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13.900.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow Original</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14.400.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony 3D Grid Hurricane</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1873-006/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки Saucony Shadow 5000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-DH7440-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 3 Retro</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/0ea/296_296_2/yerubilnpprqbqg</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/3-retro-CT8532-102/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Teveris Nitro</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9.490.₽</t>
+          <t>18.900.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Saucony Jazz 81</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>13.900.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754703/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 13 Retro</t>
+          <t>Кроссовки Saucony Shadow Original</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>14.400.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/13-retro-DJ5982-041/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
+          <t>Кроссовки Saucony 3D Grid Hurricane</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-high-og-qs-DX3805-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Mid</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-mid-BQ6472-079/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-U574UL2/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-DH7440-100/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Dunk Low Retro</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/57d/296_296_2/57d1ef7f67047d6aa549245f00fd59a0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/dunk-low-retro-DD1391-401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 1</t>
+          <t>Кроссовки PUMA Teveris Nitro</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>18.490.₽</t>
+          <t>9.490.₽</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-1-D1GA238001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Jordan 13 Retro</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/contender-D1GA236701/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/13-retro-DJ5982-041/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA RS-X Hi</t>
+          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rs-x-hi-39271801/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-high-og-qs-DX3805-100/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 Shadow</t>
+          <t>Кроссовки Jordan WMNS 1 Mid</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cea/296_296_2/ypo43ssbkl0lb9h9pftwjye1cjxahs3c.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-shadow-CI0919-600/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-mid-BQ6472-079/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/2002r-MR2002RHR/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-U574UL2/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки Mizuno Wave Rider 1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>18.490.₽</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7d/296_296_2/d2kcnhpvwxoqjkz029be3ybk5b5bf0fn.JPG </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327202/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-1-D1GA238001/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1733,386 +1733,386 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/5b8/296_296_2/fo0qlr2vot0iycmapaark2vd7a43mm5g.JPG </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/contender-D1GA236701/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
+          <t>Кроссовки PUMA RS-X Hi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c51/296_296_2/4bpayspdv4t889e9h2xyu5nxfns88p1u.jpg </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-39327102/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rs-x-hi-39271801/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-1130</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cfb/296_296_2/k2wlfll8x9rlxb1jz9tp0b8laq83ssw6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-1130-1201A255-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-MR2002RHR/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Kayano 14</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-kayano-14-1202A105-020/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327202/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-sonoma-15-50-1201A785-020/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327201/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Lyte III OG</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-lyte-iii-og-1201A482-020/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-39327102/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки ASICS Gel-Kayano 14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073985/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kayano-14-1202A105-020/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>12.690.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/97c/296_296_2/odjm4zj7g4f8izj94e4n7twhdxenmj1g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033732/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-sonoma-15-50-1201A785-020/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
+          <t>Кроссовки ASICS Gel-Lyte III OG</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-2-DJ5457-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-lyte-iii-og-1201A482-020/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-hkne-CD4553-300/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073985/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-vapormax-2021-fk-DC4112-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-2-DJ5457-100/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ZoomX Vaporfly</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-hkne-CD4553-300/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
+          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-zoom-air-cmft-CT0978-201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-vapormax-2021-fk-DC4112-100/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro</t>
+          <t>Кроссовки Nike ZoomX Vaporfly</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-AECT035-2F/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro SE</t>
+          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-se-AECT033-3F/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-zoom-air-cmft-CT0978-201/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Moc 3.5</t>
+          <t>Кроссовки Li-Ning Wave Pro</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/60f/296_296_2/xbv1uldhbv70yh7k990nhwv25643u62k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-moc-3-5-DJ6080-800/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-AECT035-2F/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
+          <t>Кроссовки Li-Ning Wave Pro SE</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-le-gs-DH2920-111/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-se-AECT033-3F/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-le-gs-DH2920-111/</t>
         </is>
       </c>
     </row>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-401/</t>
         </is>
       </c>
     </row>
@@ -2151,56 +2151,56 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-701/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-001/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DM1208-150/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-701/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2d5/296_296_2/1q2tek49apdlbtc6ggsj3h39zono0giv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-FJ4228-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DM1208-150/</t>
         </is>
       </c>
     </row>
@@ -2229,330 +2229,330 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки Nike WMNS Dunk Low LX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d6/296_296_2/1s2e120rrbes2jetcimmpvd82pmkvn93.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-DV0788-001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-lx-DV7411-400/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low LX</t>
+          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-lx-DV7411-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-mountain-fly-2-low-DV7903-800/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-mountain-fly-2-low-DV7903-800/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754701/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>26.790.₽</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754701/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9000-rally-giulietta-itali-DR201180176/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
+          <t>Кроссовки Diadora B.560 Used</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>26.790.₽</t>
+          <t>24.490.₽</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n9000-rally-giulietta-itali-DR201180176/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/b-560-used-DR201180117/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.560 Used</t>
+          <t>Кроссовки Diadora B.56 Icona</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>24.490.₽</t>
+          <t>12.190.₽</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/b-560-used-DR201180117/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/b-56-icona-DR501180124/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.56 Icona</t>
+          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12.190.₽</t>
+          <t>12.590.₽</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/b-56-icona-DR501180124/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/magic-basket-low-suede-leather-DR501178565/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
+          <t>Кроссовки Diadora N.92 Advance</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>12.590.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/magic-basket-low-suede-leather-DR501178565/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n-92-advance-DR101178042/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N.92 Advance</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>14.890.₽</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n-92-advance-DR101178042/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902 Hairy Suede</t>
+          <t>Кроссовки Diadora V7000 Winter</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3da/296_296_2/91pw2xy60tn25sp2t0qse7leuzppif85.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n902-hairy-suede-DR501179800/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C9/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>14.890.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C4/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora V7000 Winter</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C9/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C3/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C4/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C1/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C3/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/contender-D1GA237501/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Mizuno City Wind</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C1/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/city-wind-D1GA214108/</t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,132 +667,132 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки adidas Originals Gazelle</t>
+          <t>Кроссовки PUMA Disc Blaze The NeverWorn II</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/461/296_296_2/k9dgumnj9laxldfyq8plxghpaggmoxqo.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c7/296_296_2/b73zpub7z75f3pa5z6q1rld4krtwedcl.JPG </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gazelle-IG4988/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/disc-blaze-the-neverworn-ii-39318201/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Disc Blaze The NeverWorn II</t>
+          <t>Кроссовки Nike Air Max 90 NRG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>17.490.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c7/296_296_2/b73zpub7z75f3pa5z6q1rld4krtwedcl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/333/296_296_2/ub7w8db8yc4rww67chnkcpfpzmh5nx9z.JPG </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/disc-blaze-the-neverworn-ii-39318201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-nrg-CZ1929-200/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 90 NRG</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>17.490.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/333/296_296_2/ub7w8db8yc4rww67chnkcpfpzmh5nx9z.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f1/296_296_2/ppedfbkw8kw08vdfvp6jz1wjl4udtyoi.JPG </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-nrg-CZ1929-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA242601/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки Mizuno Sky Medal B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f1/296_296_2/ppedfbkw8kw08vdfvp6jz1wjl4udtyoi.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a66/296_296_2/ady3g8oxqcue14zz1u0fy3cw21o9lt9b.JPG </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA242601/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/sky-medal-b-D1GA243002/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Sky Medal B</t>
+          <t>Кроссовки Mizuno Wave Rider B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a66/296_296_2/ady3g8oxqcue14zz1u0fy3cw21o9lt9b.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/534/296_296_2/vtlxzn6kgbxd75txbf3wjzevemdqa7ya.JPG </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/sky-medal-b-D1GA243002/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-b-D1GA330911/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider B</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/534/296_296_2/vtlxzn6kgbxd75txbf3wjzevemdqa7ya.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/b00/296_296_2/jkdkeom4ii61t3ep9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-b-D1GA330911/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237305/</t>
         </is>
       </c>
     </row>
@@ -809,12 +809,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/b00/296_296_2/jkdkeom4ii61t3ep9</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1b/296_296_2/5wl372wlgcdiupc2330wu47dztxa66jj.JPG </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237305/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237304/</t>
         </is>
       </c>
     </row>
@@ -831,63 +831,63 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1b/296_296_2/5wl372wlgcdiupc2330wu47dztxa66jj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7b/296_296_2/xcb1dadzw6w1vw66jl4nnob36t17s7bp.JPG </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237304/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237303/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Nike Air Max SC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7b/296_296_2/xcb1dadzw6w1vw66jl4nnob36t17s7bp.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/8bb/296_296_2/16hm7mio</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237303/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-sc-CW4555-107/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max SC</t>
+          <t>Кроссовки PUMA Palermo Special</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/8bb/296_296_2/16hm7mio</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-sc-CW4555-107/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo Special</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
         </is>
       </c>
     </row>
@@ -919,19 +919,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo</t>
+          <t>Кроссовки PUMA Palermo Lth</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -941,122 +941,122 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo Lth</t>
+          <t>Кроссовки PUMA Velophasis Technisch</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Velophasis Technisch</t>
+          <t>Кроссовки Reebok Classic Leather</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
         </is>
       </c>
     </row>
@@ -1073,34 +1073,34 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
         </is>
       </c>
     </row>
@@ -1117,107 +1117,107 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
+          <t>Кроссовки Reebok Club C Grounds UK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Grounds UK</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1227,129 +1227,129 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-400/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки Nike Air Max 1 PRM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 1 PRM</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1873-006/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Saucony Shadow 5000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1873-006/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 5000</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1403,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
         </is>
       </c>
     </row>
@@ -1420,193 +1420,193 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>18.900.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Saucony Jazz 81</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>18.900.₽</t>
+          <t>13.900.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Jazz 81</t>
+          <t>Кроссовки Saucony Shadow Original</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13.900.₽</t>
+          <t>14.400.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow Original</t>
+          <t>Кроссовки Saucony 3D Grid Hurricane</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14.400.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony 3D Grid Hurricane</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-DH7440-100/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-DH7440-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки PUMA Teveris Nitro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>9.490.₽</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Teveris Nitro</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9.490.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754703/</t>
         </is>
       </c>
     </row>
@@ -2553,6 +2553,1062 @@
       <c r="D97" t="inlineStr">
         <is>
           <t>https://sneakerhead.ru/shoes/sneakers/city-wind-D1GA214108/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237302/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237301/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DZ5361-100/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>24.000.₽</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-FQ9117-400/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>11.590.₽</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-mid-ii-revenge-vintage-100034038/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-mid-gtx-thin-100037870/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>18.990.₽</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-mid-gtx-thin-100073817/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073984/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RHD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23.990.₽</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906R</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 1906D</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>29.990.₽</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1906d-M1906DA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 2002R</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>26.990.₽</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-ML2002RA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 2002R</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>27.990.₽</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-M2002RDN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 2002R</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>27.990.₽</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-M2002RDO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 650</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/650-BB650RGG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 574</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-U574LGBB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora N902</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>11.190.₽</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559-blue-blue/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Кроссовки Diadora Camaro</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8.190.₽</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4fc/296_296_2/srjdigdfxudh215w70x0o8fc8l116xtv.JPG </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/camaro-Dr501159886-blue-gray/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Кроссовки PUMA Slipstream Ith</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>10.990.₽</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/24e/296_296_2/0mc2kmrb9e1lnb1pd33208a0txdd065m.jpg </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-ith-38754403/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Кроссовки PUMA Slipstream Hi Heritage</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>11.990.₽</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f6b/296_296_2/nt0q5ajh008gly4tkkv4cskgyf3qhrey.jpg </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-heritage-38799803/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>20.990.₽</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6f3/296_296_2/8c5j65das5y9jhimzpsahzz6mkp2k0ec.jpg </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA227705/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Кроссовки Mizuno Wave Mujin TL</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24.990.₽</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb7/296_296_2/rv1gnv7p8atb38d0ler9j22ben8y5yq7.jpg </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-D1GA236401/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b5/296_296_2/22zitfvc9oj4hrjfwoqvfjb6xp0z55jq.jpg </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-554724-135/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike Air Max 90 GTX</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/41b/296_296_2/z19w0wzpzc32w30auu88wu3nobyrn7r2.jpg </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-gtx-DJ9779-003/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LXX NN</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>18.000.₽</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6ad/296_296_2/6ad9145e1aa2d38903e7437a49d13a22.jpg </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lxx-nn-DH0775-200/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 57/40</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/196/296_296_2/40aug9kau07erhqhygtzkagg241yu1b1.jpg </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-M5740GTP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>21.000.₽</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa9/296_296_2/2iz1qgfnnmq49mfky0d34urzfjb3d2qd.jpg </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-100/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>21.000.₽</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1c/296_296_2/xbpb5mzt3w8rr1j1wv2g5975kxcbiima.jpg </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-500/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Кроссовки Jordan 1 Mid UTL (GS)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/344/296_296_2/3444918b25ce70d1c2200f68ee963464.jpg </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-utl-gs-DO2207-264/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike ACG Lowcate</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/be7/296_296_2/0l66odgl1l7h6mzsitykenwqp5ii01kq.jpg </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-200/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 550</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/193/296_296_2/ttdiulzkz8ubyomv8lik6nwv7uiei72h.jpg </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/550-BB550HG1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike ACG Lowcate</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>20.000.₽</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e81/296_296_2/5y128vxao7wruqz21y6h536k4zomokzj.jpg </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DX2256-300/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Кроссовки Nike ACG Lowcate</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>14.990.₽</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/75b/296_296_2/75bf2db70d6ccf3f35f8cfbecfcbf0d4.jpg </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-002/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 610</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e25/296_296_2/crt3f80jfaw2hdsv3rsbbhmua0vzdr9l.jpg </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/610-ML610TAF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 5740</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>21.990.₽</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7c2/296_296_2/o7fg0y1trwgavatd2d8g752ct4hc2lhe.jpg </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740TA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 5740</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/922/296_296_2/v81f8zfigo8hxsw98s9fyqiaxxs0havk.jpg </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740VLB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 997</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b62/296_296_2/ndwntfnrpml42x72ppk2egpr9w4b9y1b.jpg </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 997</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b32/296_296_2/knfll4kabmbtlg11hi4b166ft0xforsi.jpg </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 997</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/866/296_296_2/p8wpvrtc6070h1axeq08yvn3e7rf1t0s.jpg </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 574</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9df/296_296_2/vpt624r1zd0392arcimtah6223b9g7sa.jpg </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-U574LGTC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 574</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/543/296_296_2/p38sx3blq9yvuf3khyakmyp5hrplodz2.jpg </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 574</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>17.990.₽</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4a3/296_296_2/e36pu625nh13jgrd7t6s3f2hyvuqdbss.jpg </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 580</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>21.490.₽</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/lwdg9ojrb008zucd3r9wsraxxy4d0hnd.jpg </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/580-MT580RCA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Кроссовки New Balance 5740</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d5/296_296_2/8d52f73bb5c0222b5a1ed61fc620edef.jpg </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740RG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Кроссовки ASICS Gel-Contend 4</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>14.990.₽</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d2b/296_296_2/wd8hqpk154yfzxa10uj0wsje6o3o0inb.jpg </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-contend-4-T8D4Q-032/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Кроссовки ASICS Gel-Kahana 8</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/caa/296_296_2/ytnhniogn01bw3q5vv3zs98q7mz72k16.jpg </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kahana-8-1013A137-200/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Кроссовки ASICS Gel-Kahana 8</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>19.990.₽</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/40a/296_296_2/oqo37rka0f4i2wm5nibajcyc6wzl59dv.jpg </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kahana-8-1013A137-400/</t>
         </is>
       </c>
     </row>

--- a/sneakers.xlsx
+++ b/sneakers.xlsx
@@ -447,557 +447,557 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Xtreme Earth</t>
+          <t>Кроссовки Mizuno Wave Rider B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.490.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/886/296_296_2/cx822a9cpum8yr0wbq4z3b2sg03qrw2r.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c5c/296_296_2/lv4i4t7ojx54mbnjk9xnb0fjanjzr6zz.jpg </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-xtreme-earth-39469602/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-b-D1GA242701/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Suede XL</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c25/296_296_2/fggdi89vqhp9klsn5g0pj2uzd6z2o269.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3f8/296_296_2/d2uo42vqdc9e77rcz30fyvvcclejpdqq.jpg </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-39520507/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA242801/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Suede XL</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/dbe/296_296_2/89xnx3cbxuhcdfwn1s93sexhv5xy7ywn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8d/296_296_2/iegyn24m1yc8550hfvj3n9dg4mwj6qfj.JPG </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-39520508/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-WL574AJ2/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Suede XL Skate</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1a1/296_296_2/okixnq1msr719ui0ffmna2sesdlh9lsb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c89/296_296_2/yvgvsbkfylaxfeigfh2ptvu4aruhhr84.JPG </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-skate-39577701/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVN/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Morphic</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/419/296_296_2/7ohgh2dmkttjinlcs2wku6ufhpoqacq0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/331/296_296_2/f6t8ao46ccr7o6cqyixvnc0a1tmuhe7m.JPG </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/morphic-39272401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574HMG/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23.490.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/56b/296_296_2/c36zv8alostdxiei86arxk35ryghst8j.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/543/296_296_2/p38sx3blq9yvuf3khyakmyp5hrplodz2.jpg </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-FD0793-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVB/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
+          <t>Кроссовки PUMA Slipstream Xtreme Earth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>13.490.₽</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/03d/296_296_2/bfcvnkoj8jka2v8no3vrqnx9bu5jwt7g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/886/296_296_2/cx822a9cpum8yr0wbq4z3b2sg03qrw2r.JPG </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-DZ4764-133/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-xtreme-earth-39469602/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
+          <t>Кроссовки PUMA Suede XL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7d9/296_296_2/ualpy0b013pgqtaaj5n8x3umq157ry3t.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c25/296_296_2/fggdi89vqhp9klsn5g0pj2uzd6z2o269.JPG </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-DD8959-112/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-39520507/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07</t>
+          <t>Кроссовки PUMA Suede XL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d2/296_296_2/186kxtoybsttjke5bhnl8v2muqgbfrxp.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/dbe/296_296_2/89xnx3cbxuhcdfwn1s93sexhv5xy7ywn.JPG </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-CZ0326-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-39520508/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Low</t>
+          <t>Кроссовки PUMA Suede XL Skate</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22.490.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c4a/296_296_2/t6et7ncztmemah20ta98bmfzbv4xipgg.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1a1/296_296_2/okixnq1msr719ui0ffmna2sesdlh9lsb.JPG </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-low-553558-130/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/suede-xl-skate-39577701/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Disc Blaze The NeverWorn II</t>
+          <t>Кроссовки PUMA Morphic</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c7/296_296_2/b73zpub7z75f3pa5z6q1rld4krtwedcl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/419/296_296_2/7ohgh2dmkttjinlcs2wku6ufhpoqacq0.JPG </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/disc-blaze-the-neverworn-ii-39318201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/morphic-39272401/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 90 NRG</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17.490.₽</t>
+          <t>23.490.₽</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/333/296_296_2/ub7w8db8yc4rww67chnkcpfpzmh5nx9z.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/56b/296_296_2/c36zv8alostdxiei86arxk35ryghst8j.JPG </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-nrg-CZ1929-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-FD0793-100/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f1/296_296_2/ppedfbkw8kw08vdfvp6jz1wjl4udtyoi.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/03d/296_296_2/bfcvnkoj8jka2v8no3vrqnx9bu5jwt7g.JPG </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA242601/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-DZ4764-133/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Sky Medal B</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a66/296_296_2/ady3g8oxqcue14zz1u0fy3cw21o9lt9b.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7d9/296_296_2/ualpy0b013pgqtaaj5n8x3umq157ry3t.JPG </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/sky-medal-b-D1GA243002/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-DD8959-112/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider B</t>
+          <t>Кроссовки Nike Air Force 1 '07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/534/296_296_2/vtlxzn6kgbxd75txbf3wjzevemdqa7ya.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d2/296_296_2/186kxtoybsttjke5bhnl8v2muqgbfrxp.JPG </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-b-D1GA330911/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-CZ0326-100/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки PUMA Disc Blaze The NeverWorn II</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/b00/296_296_2/jkdkeom4ii61t3ep9</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c7/296_296_2/b73zpub7z75f3pa5z6q1rld4krtwedcl.JPG </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237305/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/disc-blaze-the-neverworn-ii-39318201/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Nike Air Max 90 NRG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>17.490.₽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1b/296_296_2/5wl372wlgcdiupc2330wu47dztxa66jj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/333/296_296_2/ub7w8db8yc4rww67chnkcpfpzmh5nx9z.JPG </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237304/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-nrg-CZ1929-200/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7b/296_296_2/xcb1dadzw6w1vw66jl4nnob36t17s7bp.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f1/296_296_2/ppedfbkw8kw08vdfvp6jz1wjl4udtyoi.JPG </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237303/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA242601/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max SC</t>
+          <t>Кроссовки Mizuno Sky Medal B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru//upload/resize_cache/iblock/8bb/296_296_2/16hm7mio</t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a66/296_296_2/ady3g8oxqcue14zz1u0fy3cw21o9lt9b.JPG </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-sc-CW4555-107/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/sky-medal-b-D1GA243002/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo Special</t>
+          <t>Кроссовки Mizuno Wave Rider B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/534/296_296_2/vtlxzn6kgbxd75txbf3wjzevemdqa7ya.JPG </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-b-D1GA330911/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/b00/296_296_2/jkdkeom4ii61t3ep9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237305/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1b/296_296_2/5wl372wlgcdiupc2330wu47dztxa66jj.JPG </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237304/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Palermo Lth</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7b/296_296_2/xcb1dadzw6w1vw66jl4nnob36t17s7bp.JPG </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237303/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Velophasis Technisch</t>
+          <t>Кроссовки Nike Air Max SC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
+          <t>https://sneakerhead.ru//upload/resize_cache/iblock/8bb/296_296_2/16hm7mio</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-sc-CW4555-107/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather</t>
+          <t>Кроссовки PUMA Palermo Special</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb1/296_296_2/drbzyd7r7veiwdhmexekhrn8qbyjqra8.JPG </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-special-39754901/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1007,100 +1007,100 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6cf/296_296_2/eicxd90ffrsoxkji74qe0vz8jn876rf0.JPG </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646302/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
+          <t>Кроссовки PUMA Palermo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/841/296_296_2/abj0nq6wqqcdfq42a516qmdvi4aiznmu.JPG </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-39646303/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
+          <t>Кроссовки PUMA Palermo Lth</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/16c/296_296_2/3gt02npz2lq4ioxi48tqkh6yrrd2uf9h.JPG </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/palermo-lth-39646401/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
+          <t>Кроссовки PUMA Velophasis Technisch</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45a/296_296_2/j84joijwfsagemes5gwjzurvm3pep9nu.JPG </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/velophasis-technisch-39093207/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
+          <t>Кроссовки Reebok Classic Leather</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/487/296_296_2/x6px4bcl9243a4aqphwmb6zyby74q5hm.JPG </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-100074619/</t>
         </is>
       </c>
     </row>
@@ -1117,129 +1117,129 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e2f/296_296_2/nkadokum6giw3t6wa5s1ine32z8goxsy.JPG </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074091/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
+          <t>Кроссовки Reebok RBK Premier Trinity KFS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a54/296_296_2/mx7zlsfsd7whcffhsobhahjf679emovj.JPG </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-trinity-kfs-100074434/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f29/296_296_2/kiebru9qdk5pq7zbsd8gf7w7489cgb7s.JPG </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074669/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Grounds UK</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>15.990.₽</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddd/296_296_2/ezpc16zyofccveys0nk7lo5ycytz23uc.JPG </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-100074670/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6de/296_296_2/w71u1gibst7vubucsnr39z88ztsvsjxz.JPG </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-100074093/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Reebok RBK Premier Road Plus VI</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b0e/296_296_2/ijozowvq19fs1ds67dd51vkyinpz0v3k.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ffe/296_296_2/97t00kut5xk29vpsm1lfou85442nnch2.JPG </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/rbk-premier-road-plus-vi-101756158/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II Mid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1249,151 +1249,151 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/2e2/296_296_2/tl8t5jb94bd8kki62w1u7miyiy3fkpot.JPG </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-mid-100202938/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 1 PRM</t>
+          <t>Кроссовки Reebok x Sports Illustrated BB 4000 II</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cb9/296_296_2/g4m1fzzlxzxnr4nk4widdceszw3cjpqf.JPG </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-si-bb-4000-ii-100206108/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Reebok Club C Grounds UK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/097/296_296_2/sl1dbnynokw2dgg1n9q6nho6xw9xgugn.JPG </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-grounds-uk-100074846/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d95/296_296_2/4j1dbggpomuzyep5g205k53ctzw49ss4.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e4/296_296_2/y1f68cyora2kci2qmrau9fjjsz9r3309.JPG </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-FB1873-006/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-FQ8825-100/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 5000</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/000/296_296_2/iu8erfjqr00ohoui3nq8uzlhkx10gtaw.JPG </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-201/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Nike Air Max 1 PRM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/3d0/296_296_2/x010tin4ewx9boh08hzmt1qmr8b2licl.JPG </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-1-prm-FJ5472-121/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17.600.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b0/296_296_2/jtszxm27r6l4nc3jn7gt3b5c93zc8hbb.JPG </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-DQ8426-401/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow 6000</t>
+          <t>Кроссовки Saucony Shadow 5000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/676/296_296_2/th9pk1w9xbr4349gsjsu58xpeqe305xa.jpg </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-5000-S707473/</t>
         </is>
       </c>
     </row>
@@ -1420,281 +1420,281 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>18.900.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7f5/296_296_2/fl6dru8cv1ax0w0s3woiegss1e03537y.JPG </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707472/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Jazz 81</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13.900.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/008/296_296_2/v2vf86dvtzc50bhbakhk1wgmkpm0d5qw.JPG </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706622/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony Shadow Original</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14.400.₽</t>
+          <t>17.600.₽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a13/296_296_2/ylzxac88e18cbc6fdb14lv9pjeos90io.JPG </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S706623/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Кроссовки Saucony 3D Grid Hurricane</t>
+          <t>Кроссовки Saucony Shadow 6000</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>18.900.₽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae3/296_296_2/lk7cjjtlwenbsnaz8lupawb1gg92u89d.JPG </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-6000-S707001/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Space Hippie 01</t>
+          <t>Кроссовки Saucony Jazz 81</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.990.₽</t>
+          <t>13.900.₽</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/346/296_296_2/m9br8zd2ifkgceufr7wgb57ijdvev81w.JPG </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/jazz-81-S707371/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 '07 LV8</t>
+          <t>Кроссовки Saucony Shadow Original</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>14.400.₽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/663/296_296_2/tqg36ogeibeejpt48jkcvphr16k4pwgm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/88a/296_296_2/xq8k79ozpfybxo7zfftkj8kbxchw2u4g.JPG </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-07-lv8-DH7440-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/shadow-original-S2108827/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C BULC</t>
+          <t>Кроссовки Saucony 3D Grid Hurricane</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12.490.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae1/296_296_2/d8aurlto7sc2me0heb4jmwgbuapecfwl.JPG </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/3d-grid-hurricane-S706706/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Teveris Nitro</t>
+          <t>Кроссовки Nike Space Hippie 01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9.490.₽</t>
+          <t>12.990.₽</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4f2/296_296_2/12uei3kk0sftwwxxc6era6nh0bhmk5te.JPG </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/space-hippie-01-CQ3986-001/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Reebok Club C BULC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>12.490.₽</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c9c/296_296_2/il8snd570s5gmaqisbsozgxc9wnszicy.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ddb/296_296_2/tjy5e9aw7xtp416sxnovl8oxhau81kb1.JPG </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754703/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-bulc-100033925/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 13 Retro</t>
+          <t>Кроссовки PUMA Teveris Nitro</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>9.490.₽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9d3/296_296_2/a88zusqngf1pqwont4j6eq8gh6n0u4tr.JPG </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/13-retro-DJ5982-041/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/teveris-nitro-38877403/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
+          <t>Кроссовки Jordan 13 Retro</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1ac/296_296_2/j6w64b3qyc2h086fdv0tsoelza0x1bb8.JPG </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-high-og-qs-DX3805-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/13-retro-DJ5982-041/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Mid</t>
+          <t>Кроссовки Nike WMNS Air Force 1 High OG QS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bb3/296_296_2/m2t337wcsv54e89oqpij9k29iutwb2qu.JPG </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-mid-BQ6472-079/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-high-og-qs-DX3805-100/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Jordan WMNS 1 Mid</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c7d/296_296_2/u2f3uguex22a6i36dhd8nfrgm9gkd1kd.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/274/296_296_2/27443d085d6096b2f951a9d40f4c669c.jpg </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-U574UL2/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-mid-BQ6472-079/</t>
         </is>
       </c>
     </row>
@@ -1767,22 +1767,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22.990.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e4d/296_296_2/e4d5b3596faee2bd476db4f711f10cd0.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/2002r-MR2002RHR/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327202/</t>
         </is>
       </c>
     </row>
@@ -1799,19 +1799,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e7c/296_296_2/tnk0n8vldc4nya4fal6nd6eo1aquj1p1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327202/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327201/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme Cordura</t>
+          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1821,129 +1821,129 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/cef/296_296_2/obiyh0ljm0v21pz2pp2nxdxv8p6ms6p2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-cordura-39327201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-39327102/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Xtreme</t>
+          <t>Кроссовки ASICS Gel-Kayano 14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/72b/296_296_2/j1zj2c90bn9qjq4xx157njfg7fwzx8e1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-xtreme-39327102/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kayano-14-1202A105-020/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Kayano 14</t>
+          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/n8jmzs7zactks5jg11yq4aaq2auup486.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-kayano-14-1202A105-020/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-sonoma-15-50-1201A785-020/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Sonoma 15-50</t>
+          <t>Кроссовки ASICS Gel-Lyte III OG</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b31/296_296_2/xdqk06l4q6zkuw00ezss8ok1339feeai.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-sonoma-15-50-1201A785-020/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-lyte-iii-og-1201A482-020/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Lyte III OG</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>31.990.₽</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/86c/296_296_2/p0rh90mco2ntvn6gl2s5141v7qrkvdil.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-lyte-iii-og-1201A482-020/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-2-DJ5457-100/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>30.990.₽</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/61f/296_296_2/42r6y6lgva4e9z9893t2og2pbd69d20j.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073985/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-hkne-CD4553-300/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% 2</t>
+          <t>Кроссовки Nike ZoomX Vaporfly</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1953,965 +1953,965 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8ec/296_296_2/n1jhzp434z73l3cpbbllz7tzqnl30d09.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-2-DJ5457-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Zoomx Vaporfly Next% HKNE</t>
+          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>30.990.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/527/296_296_2/4vwh2jrfl5ggwba5igbszthur2riarok.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly-next-hkne-CD4553-300/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-zoom-air-cmft-CT0978-201/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Vapormax 2021 FK</t>
+          <t>Кроссовки Li-Ning Wave Pro</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0bd/296_296_2/z50ayuan1ca9kh9x2u0z5soyku823gf1.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-vapormax-2021-fk-DC4112-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-AECT035-2F/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ZoomX Vaporfly</t>
+          <t>Кроссовки Li-Ning Wave Pro SE</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>31.990.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a7d/296_296_2/3shqdya6m5ag7frpr4zbt60j0848d46f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zoomx-vaporfly/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-se-AECT033-3F/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 ZOOM AIR CMFT</t>
+          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/801/296_296_2/abnpm41gq4kb5d4rwl567px608bfqxy5.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-zoom-air-cmft-CT0978-201/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-le-gs-DH2920-111/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/822/296_296_2/r4pt14oz9i2g99aslvj4kjvmyxaohosr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-AECT035-2F/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-401/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Кроссовки Li-Ning Wave Pro SE</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/0e4/296_296_2/baf4l4w7rtki2j50r36bvmtnxszrt14e.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-pro-se-AECT033-3F/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-001/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Force 1 LE (GS)</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d5e/296_296_2/d5ebbacaa03f8ce6957fbab928d42eee.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-force-1-le-gs-DH2920-111/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-701/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/510/296_296_2/3mencgkhigsy0rp4az1030oxwmt3zsdu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-DD8959-110/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Nike WMNS Dunk Low LX</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa7/296_296_2/6u4o87au7d6veyqbjx5lu168ckgspwxx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-001/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-lx-DV7411-400/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a1c/296_296_2/yo8n34xfiwo8s6arqiln0owrq0i80iba.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-701/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-mountain-fly-2-low-DV7903-800/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки PUMA Slipstream Suede</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>10.190.₽</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fcf/296_296_2/fsokqf6rdx7ohynq1ynvzy72iub42dc6.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DM1208-150/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754701/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LX</t>
+          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>26.790.₽</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a3a/296_296_2/nmivl13a5m0cy447mnyt9xy2c6i3d13w.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lx-DD8959-110/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9000-rally-giulietta-itali-DR201180176/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Dunk Low LX</t>
+          <t>Кроссовки Diadora B.560 Used</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>24.490.₽</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/47f/296_296_2/tbrur5tjllknu907e8r62eadzohmecdq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-dunk-low-lx-DV7411-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/b-560-used-DR201180117/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Mountain Fly 2 Low</t>
+          <t>Кроссовки Diadora B.56 Icona</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>12.190.₽</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/da4/296_296_2/o1swj5riifulqv62i7x7yag0esds6tlb.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-mountain-fly-2-low-DV7903-800/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/b-56-icona-DR501180124/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Suede</t>
+          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10.190.₽</t>
+          <t>12.590.₽</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1e7/296_296_2/luq43cv83p432jwj3zolpe8ttvqronqh.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-suede-38754701/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/magic-basket-low-suede-leather-DR501178565/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9000 Rally Giulietta Itali</t>
+          <t>Кроссовки Diadora N.92 Advance</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>26.790.₽</t>
+          <t>10.490.₽</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/998/296_296_2/prlbuactqqt6km4sn7r8snysz9sl53ik.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n9000-rally-giulietta-itali-DR201180176/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n-92-advance-DR101178042/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.560 Used</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>24.490.₽</t>
+          <t>14.890.₽</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c64/296_296_2/c0fqcfk3ssgfnrxll76psxi33uyvn813.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/b-560-used-DR201180117/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora B.56 Icona</t>
+          <t>Кроссовки Diadora V7000 Winter</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>12.190.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/155/296_296_2/tjwnrwrow86mujignvqhapmy0wdvc56f.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/b-56-icona-DR501180124/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C9/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Magic Basket Low Suede Leather</t>
+          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>12.590.₽</t>
+          <t>14.190.₽</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/85a/296_296_2/ifh2xgzc3lkvi4l919fjdgqbvgmkf1sn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/magic-basket-low-suede-leather-DR501178565/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C4/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N.92 Advance</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10.490.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d00/296_296_2/2o731rmeir6av9x2i70txdm46dqoz0xx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n-92-advance-DR101178042/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C3/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки Diadora N9002 Winter</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>14.890.₽</t>
+          <t>16.390.₽</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1c9/296_296_2/wej9c1s9undfcvlxl3jwoh6kb6funvxu.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C1/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora V7000 Winter</t>
+          <t>Кроссовки Mizuno Contender</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>16.990.₽</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ae4/296_296_2/fnt7nsc3jupi22ue464cxbp9jmwbqq20.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C9/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/contender-D1GA237501/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кроссовки Diadora V7000 Winter </t>
+          <t>Кроссовки Mizuno City Wind</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>14.190.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e69/296_296_2/3urr2nxltn6nrnog4mqhliulquiy7p97.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/v7000-winter-DR501179722C4/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/city-wind-D1GA214108/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e65/296_296_2/4fe7jsy4klih38kzyqe8labyt2wys8ar.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C3/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237302/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N9002 Winter</t>
+          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16.390.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/47achzhjvpul8jbeyn5pf26qubzwmuf8.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n9002-winter-DR501179719C1/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237301/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Contender</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b56/296_296_2/ce779p9n380lfnw58yk8b1han4ftjbwc.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/contender-D1GA237501/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DZ5361-100/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno City Wind</t>
+          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>24.000.₽</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/c8e/296_296_2/k9sjc434r3qmn6my5dwwjz325mwxzeh0.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/city-wind-D1GA214108/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-FQ9117-400/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>11.590.₽</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/396/296_296_2/4a57232ajluzciuvomuvow2xc4p4vzn2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237302/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/club-c-mid-ii-revenge-vintage-100034038/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL GTX</t>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f37/296_296_2/9qo14d029kjb0nri86pwhug41db3wjmg.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-gtx-D1GA237301/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-mid-gtx-thin-100037870/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1d0/296_296_2/5y0m14acunvwl6ch0y16y4c7vytgvayd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-DZ5361-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-mid-gtx-thin-100073817/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid SE (GS)</t>
+          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>24.000.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/955/296_296_2/04i3rsojwt4rs4hxrhwbzawyj52zyti3.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-se-gs-FQ9117-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073984/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Club C Mid II Revenge Vintage</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11.590.₽</t>
+          <t>22.990.₽</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/1f3/296_296_2/erhqtcmroqwyw6ootl4q2bp4soqpbljx.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/878/296_296_2/koi3s0qa9kfada2kua5gn0d41e5of264.JPG </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/club-c-mid-ii-revenge-vintage-100034038/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RWM/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки New Balance 1906R</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>23.990.₽</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/79c/296_296_2/mok7zia3pqubmlb3sj5pm8i4bt3g6icl.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-mid-gtx-thin-100037870/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RO/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Classic Leather Mid GTX-Thin</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>18.990.₽</t>
+          <t>26.990.₽</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eaf/296_296_2/man4efeab6qqovnk4obe172uoy7auz7t.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/classic-leather-mid-gtx-thin-100073817/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-ML2002RA/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Кроссовки Reebok Zig Kinetica 2.5 Edge Winter</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>27.990.₽</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/521/296_296_2/rhm0w2q5vrjw01rujx2ue8tmom4zohkn.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/zig-kinetica-2-5-edge-winter-100073984/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-M2002RDN/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки New Balance 2002R</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>27.990.₽</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/550/296_296_2/ln7d28aw9qjevitjgq55fys4ixma3vqr.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RHD/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/2002r-M2002RDO/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки New Balance 650</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>23.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/ed9/296_296_2/250ybpwnpc95a4ko80j6t26zsx95asl7.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RO/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/650-BB650RGG/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906R</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/a6f/296_296_2/u7c70j4wa3gautpbc1ss7il29a8pc528.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1906r-M1906RB/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-U574LGBB/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 1906D</t>
+          <t>Кроссовки Diadora N902</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>29.990.₽</t>
+          <t>11.190.₽</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/bc4/296_296_2/ycajini0d9aj9wr3mola54wt5tfucub2.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1906d-M1906DA/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559-blue-blue/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки PUMA Slipstream Ith</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>26.990.₽</t>
+          <t>10.990.₽</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/799/296_296_2/c2qprec6hh9s9e8ydty4t3a44385jk1u.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/24e/296_296_2/0mc2kmrb9e1lnb1pd33208a0txdd065m.jpg </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/2002r-ML2002RA/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-ith-38754403/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки PUMA Slipstream Hi Heritage</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>27.990.₽</t>
+          <t>11.990.₽</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/50e/296_296_2/k22v7n8x69fpaz9xeklqvnyv9s328oxv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f6b/296_296_2/nt0q5ajh008gly4tkkv4cskgyf3qhrey.jpg </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/2002r-M2002RDN/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-heritage-38799803/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 2002R</t>
+          <t>Кроссовки Mizuno Wave Rider 10</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>27.990.₽</t>
+          <t>20.990.₽</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/459/296_296_2/v8en6105b46py77w2m230gk3jwvs55la.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6f3/296_296_2/8c5j65das5y9jhimzpsahzz6mkp2k0ec.jpg </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/2002r-M2002RDO/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA227705/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 650</t>
+          <t>Кроссовки Mizuno Wave Mujin TL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.990.₽</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9b1/296_296_2/e5pun4m7z0czomlgsf8jcu4qg12dt8zq.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb7/296_296_2/rv1gnv7p8atb38d0ler9j22ben8y5yq7.jpg </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/650-BB650RGG/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-D1GA236401/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Jordan 1 Mid</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2921,327 +2921,327 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/875/296_296_2/8twqq259pj1pnh824hainnk4bj26tnpm.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b5/296_296_2/22zitfvc9oj4hrjfwoqvfjb6xp0z55jq.jpg </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-U574LGBB/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-554724-135/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora N902</t>
+          <t>Кроссовки Nike Air Max 90 GTX</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>11.190.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8fa/296_296_2/8mxgc8kxi7np8hemgieicwxv1iij1voo.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/41b/296_296_2/z19w0wzpzc32w30auu88wu3nobyrn7r2.jpg </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/n902-DR501178559-blue-blue/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-gtx-DJ9779-003/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Кроссовки Diadora Camaro</t>
+          <t>Кроссовки Nike WMNS Air Force 1 '07 LXX NN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8.190.₽</t>
+          <t>18.000.₽</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4fc/296_296_2/srjdigdfxudh215w70x0o8fc8l116xtv.JPG </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6ad/296_296_2/6ad9145e1aa2d38903e7437a49d13a22.jpg </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/camaro-Dr501159886-blue-gray/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lxx-nn-DH0775-200/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Ith</t>
+          <t>Кроссовки New Balance 57/40</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/24e/296_296_2/0mc2kmrb9e1lnb1pd33208a0txdd065m.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/196/296_296_2/40aug9kau07erhqhygtzkagg241yu1b1.jpg </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-ith-38754403/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-M5740GTP/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Кроссовки PUMA Slipstream Hi Heritage</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>11.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f6b/296_296_2/nt0q5ajh008gly4tkkv4cskgyf3qhrey.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa9/296_296_2/2iz1qgfnnmq49mfky0d34urzfjb3d2qd.jpg </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/slipstream-hi-heritage-38799803/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-100/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Rider 10</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6f3/296_296_2/8c5j65das5y9jhimzpsahzz6mkp2k0ec.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1c/296_296_2/xbpb5mzt3w8rr1j1wv2g5975kxcbiima.jpg </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-rider-10-D1GA227705/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-500/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Кроссовки Mizuno Wave Mujin TL</t>
+          <t>Кроссовки Jordan 1 Mid UTL (GS)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>24.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb7/296_296_2/rv1gnv7p8atb38d0ler9j22ben8y5yq7.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/344/296_296_2/3444918b25ce70d1c2200f68ee963464.jpg </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wave-mujin-tl-D1GA236401/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-utl-gs-DO2207-264/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b5/296_296_2/22zitfvc9oj4hrjfwoqvfjb6xp0z55jq.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/be7/296_296_2/0l66odgl1l7h6mzsitykenwqp5ii01kq.jpg </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-554724-135/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-200/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Кроссовки Nike Air Max 90 GTX</t>
+          <t>Кроссовки New Balance 550</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/41b/296_296_2/z19w0wzpzc32w30auu88wu3nobyrn7r2.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/193/296_296_2/ttdiulzkz8ubyomv8lik6nwv7uiei72h.jpg </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/air-max-90-gtx-DJ9779-003/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/550-BB550HG1/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Кроссовки Nike WMNS Air Force 1 '07 LXX NN</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>18.000.₽</t>
+          <t>20.000.₽</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6ad/296_296_2/6ad9145e1aa2d38903e7437a49d13a22.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e81/296_296_2/5y128vxao7wruqz21y6h536k4zomokzj.jpg </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-force-1-07-lxx-nn-DH0775-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DX2256-300/</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 57/40</t>
+          <t>Кроссовки Nike ACG Lowcate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/196/296_296_2/40aug9kau07erhqhygtzkagg241yu1b1.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/75b/296_296_2/75bf2db70d6ccf3f35f8cfbecfcbf0d4.jpg </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-M5740GTP/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-002/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки New Balance 610</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/fa9/296_296_2/2iz1qgfnnmq49mfky0d34urzfjb3d2qd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e25/296_296_2/crt3f80jfaw2hdsv3rsbbhmua0vzdr9l.jpg </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-100/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/610-ML610TAF/</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
+          <t>Кроссовки New Balance 5740</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>21.000.₽</t>
+          <t>21.990.₽</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e1c/296_296_2/xbpb5mzt3w8rr1j1wv2g5975kxcbiima.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7c2/296_296_2/o7fg0y1trwgavatd2d8g752ct4hc2lhe.jpg </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-500/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740TA/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Кроссовки Jordan 1 Mid UTL (GS)</t>
+          <t>Кроссовки New Balance 5740</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/344/296_296_2/3444918b25ce70d1c2200f68ee963464.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/922/296_296_2/v81f8zfigo8hxsw98s9fyqiaxxs0havk.jpg </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/1-mid-utl-gs-DO2207-264/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740VLB/</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки New Balance 997</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/be7/296_296_2/0l66odgl1l7h6mzsitykenwqp5ii01kq.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b62/296_296_2/ndwntfnrpml42x72ppk2egpr9w4b9y1b.jpg </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHC/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 550</t>
+          <t>Кроссовки New Balance 997</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3251,78 +3251,78 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/193/296_296_2/ttdiulzkz8ubyomv8lik6nwv7uiei72h.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b32/296_296_2/knfll4kabmbtlg11hi4b166ft0xforsi.jpg </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/550-BB550HG1/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHA/</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки New Balance 997</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>20.000.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e81/296_296_2/5y128vxao7wruqz21y6h536k4zomokzj.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/866/296_296_2/p8wpvrtc6070h1axeq08yvn3e7rf1t0s.jpg </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DX2256-300/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHB/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Кроссовки Nike ACG Lowcate</t>
+          <t>Кроссовки New Balance 574</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/75b/296_296_2/75bf2db70d6ccf3f35f8cfbecfcbf0d4.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4a3/296_296_2/e36pu625nh13jgrd7t6s3f2hyvuqdbss.jpg </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/acg-lowcate-DM8019-002/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVG/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 610</t>
+          <t>Кроссовки New Balance 580</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>21.490.₽</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e25/296_296_2/crt3f80jfaw2hdsv3rsbbhmua0vzdr9l.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/lwdg9ojrb008zucd3r9wsraxxy4d0hnd.jpg </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/610-ML610TAF/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/580-MT580RCA/</t>
         </is>
       </c>
     </row>
@@ -3334,46 +3334,46 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>21.990.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/7c2/296_296_2/o7fg0y1trwgavatd2d8g752ct4hc2lhe.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d5/296_296_2/8d52f73bb5c0222b5a1ed61fc620edef.jpg </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740TA/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740RG/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 5740</t>
+          <t>Кроссовки ASICS Gel-Contend 4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>14.990.₽</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/922/296_296_2/v81f8zfigo8hxsw98s9fyqiaxxs0havk.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d2b/296_296_2/wd8hqpk154yfzxa10uj0wsje6o3o0inb.jpg </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740VLB/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-contend-4-T8D4Q-032/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 997</t>
+          <t>Кроссовки ASICS Gel-Kahana 8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3383,19 +3383,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b62/296_296_2/ndwntfnrpml42x72ppk2egpr9w4b9y1b.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/caa/296_296_2/ytnhniogn01bw3q5vv3zs98q7mz72k16.jpg </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHC/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kahana-8-1013A137-200/</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 997</t>
+          <t>Кроссовки ASICS Gel-Kahana 8</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3405,210 +3405,210 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b32/296_296_2/knfll4kabmbtlg11hi4b166ft0xforsi.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/40a/296_296_2/oqo37rka0f4i2wm5nibajcyc6wzl59dv.jpg </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHA/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/gel-kahana-8-1013A137-400/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 997</t>
+          <t>Кроссовки Jordan 1 Low</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>24.490.₽</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/866/296_296_2/p8wpvrtc6070h1axeq08yvn3e7rf1t0s.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/45f/296_296_2/ugkyso5zyc9vl9uzy0c8vtpbqvb702oo.jpg </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/997-U997RHB/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/1-low-553558-041/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Jordan WMNS 1 Acclimate</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>21.000.₽</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/9df/296_296_2/vpt624r1zd0392arcimtah6223b9g7sa.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/531/296_296_2/531eec4bad22ba9f86166d341948ce56.jpg </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-U574LGTC/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-1-acclimate-DC7723-200/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Nike WMNS Air Max 1 SFR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>25.990.₽</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/543/296_296_2/p38sx3blq9yvuf3khyakmyp5hrplodz2.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/170/296_296_2/937t34waz90ubsmaujgf7flluwoe33ny.jpg </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVB/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-max-1-sfr-FB5059-100/</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 574</t>
+          <t>Кроссовки Nike WMNS Air Max Terrascape 90</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>17.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/4a3/296_296_2/e36pu625nh13jgrd7t6s3f2hyvuqdbss.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/f3b/296_296_2/f3b02504f79f55d26b7c902b9f27218e.jpg </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/574-ML574EVG/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/wmns-air-max-terrascape-90-DC9450-001/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 580</t>
+          <t>Кроссовки adidas Originals Samba OG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>21.490.₽</t>
+          <t>19.990.₽</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/688/296_296_2/lwdg9ojrb008zucd3r9wsraxxy4d0hnd.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/b04/296_296_2/6ehyrvgumi4adxnv90hlrvtcnd1o7xrw.jpg </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/580-MT580RCA/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/samba-og-IG1024/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Кроссовки New Balance 5740</t>
+          <t>Кроссовки adidas Originals Campus 00s</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>18.990.₽</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/8d5/296_296_2/8d52f73bb5c0222b5a1ed61fc620edef.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/e90/296_296_2/2v26bz29pzpp2lxekons5w6kneu8o808.jpg </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/5740-M5740RG/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/campus-00s-HO3471/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Contend 4</t>
+          <t>Кроссовки Mizuno City Wind</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>14.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/d2b/296_296_2/wd8hqpk154yfzxa10uj0wsje6o3o0inb.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6ee/296_296_2/3ndt5xgrcu2uk0djcvzhr0i1c0r9zrgs.jpg </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-contend-4-T8D4Q-032/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/city-wind-D1GA332803/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Kahana 8</t>
+          <t>Кроссовки Mizuno City Wind</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>13.990.₽</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/caa/296_296_2/ytnhniogn01bw3q5vv3zs98q7mz72k16.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/eb8/296_296_2/j8umtgovpo6xqo8fks0vbdgzpsxh4jv0.jpg </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-kahana-8-1013A137-200/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/city-wind-D1GA332802/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Кроссовки ASICS Gel-Kahana 8</t>
+          <t>Кроссовки Nike x Acronym Blazer Low</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>19.990.₽</t>
+          <t>17.990.₽</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/40a/296_296_2/oqo37rka0f4i2wm5nibajcyc6wzl59dv.jpg </t>
+          <t xml:space="preserve">https://sneakerhead.ru//upload/resize_cache/iblock/6b6/296_296_2/o87j32qc4sja38nguz9q22lxp7hfchq8.jpg </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://sneakerhead.ru/shoes/sneakers/gel-kahana-8-1013A137-400/</t>
+          <t>https://sneakerhead.ru/shoes/sneakers/x-acronym-blazer-low-DN2067-600/</t>
         </is>
       </c>
     </row>
